--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorar_000\Documents\GitHub\DB-TF-IDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401AAAA5-3232-49AA-85A3-817A6DB0244C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D0AB5-4545-4530-9328-971C38067478}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E197496A-F282-42AF-A83A-9264A30CD7D1}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6752,7 +6752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8587313-DF33-4161-9ED7-E45DC9C840AA}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8587313-DF33-4161-9ED7-E45DC9C840AA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A25:D33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -6944,7 +6944,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B42AFF03-F4FC-45AA-BFDD-66F9CA5C1316}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B42AFF03-F4FC-45AA-BFDD-66F9CA5C1316}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A5:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -7435,7 +7435,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorar_000\Documents\GitHub\DB-TF-IDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D0AB5-4545-4530-9328-971C38067478}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B41753-B951-4160-BCAB-E7F268EE9414}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E197496A-F282-42AF-A83A-9264A30CD7D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E197496A-F282-42AF-A83A-9264A30CD7D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="25">
   <si>
     <t>Algorithm</t>
   </si>
@@ -580,6 +580,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7055555555555605E-2"/>
+                  <c:y val="-5.3206109652960132E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DA0F-43AA-94D2-F42F08960C89}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$7:$A$13</c:f>
@@ -685,6 +763,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5388888888888937E-2"/>
+                  <c:y val="-5.7835739282589678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DA0F-43AA-94D2-F42F08960C89}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$7:$A$13</c:f>
@@ -784,6 +940,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$7:$A$13</c:f>
@@ -834,6 +1049,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>71.270647764205904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.967468738555894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.93918013572599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,6 +1515,62 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$27:$A$33</c:f>
@@ -1399,6 +1676,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9833333333333283E-2"/>
+                  <c:y val="5.3206109652960049E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$27:$A$33</c:f>
@@ -1435,6 +1790,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>37.731046438217099</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>57.235394716262803</c:v>
                 </c:pt>
@@ -1498,6 +1856,175 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6277777777777777E-2"/>
+                  <c:y val="-1.1539442986293381E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2611111111111162E-2"/>
+                  <c:y val="-2.5428331875182352E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6277777777777777E-2"/>
+                  <c:y val="-4.3946850393700873E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6277777777777777E-2"/>
+                  <c:y val="-3.4687591134441614E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2611111111111058E-2"/>
+                  <c:y val="-3.0057961504811898E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-037A-420D-B300-13A93602F6A6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Sheet2 (2)'!$A$27:$A$33</c:f>
@@ -1534,6 +2061,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71.526687145233097</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>107.764459609985</c:v>
                 </c:pt>
@@ -2355,6 +2885,12 @@
                 <c:pt idx="4">
                   <c:v>71.270647764205904</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.967468738555894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.93918013572599</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2932,6 +3468,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>37.731046438217099</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>57.235394716262803</c:v>
                 </c:pt>
@@ -3030,6 +3569,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71.526687145233097</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>107.764459609985</c:v>
                 </c:pt>
@@ -5625,9 +6167,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dorar_000" refreshedDate="43518.51062025463" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="132" xr:uid="{2B38CDE5-B315-4F6E-B25D-02ECB5DAAE1D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="dorar_000" refreshedDate="43522.378384606483" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="140" xr:uid="{2B38CDE5-B315-4F6E-B25D-02ECB5DAAE1D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F133" sheet="Sheet1"/>
+    <worksheetSource ref="A1:F141" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Algorithm" numFmtId="0">
@@ -5691,7 +6233,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="132">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="140">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6235,6 +6777,38 @@
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="37.731046438217099"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="37.731298916999997"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0.122764915"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
@@ -6562,7 +7136,7 @@
     <n v="69.967468738555894"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6570,7 +7144,7 @@
     <n v="3.92"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6578,7 +7152,7 @@
     <n v="69.966939423000397"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6586,7 +7160,7 @@
     <n v="3.9265832810000001"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6594,7 +7168,7 @@
     <n v="142.93918013572599"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6602,7 +7176,7 @@
     <n v="5.3"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6610,7 +7184,7 @@
     <n v="142.939089061"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -6618,6 +7192,38 @@
     <n v="5.290102246"/>
     <x v="1"/>
     <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="71.526687145233097"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3.56"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="71.526260735999998"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="3.557378135"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
   </r>
   <r>
@@ -6752,7 +7358,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8587313-DF33-4161-9ED7-E45DC9C840AA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8587313-DF33-4161-9ED7-E45DC9C840AA}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A25:D33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -6944,7 +7550,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B42AFF03-F4FC-45AA-BFDD-66F9CA5C1316}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B42AFF03-F4FC-45AA-BFDD-66F9CA5C1316}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A5:D13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -7434,8 +8040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E29930-12BE-48C5-A05F-29B4384CD50D}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="E15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7549,13 +8155,13 @@
       <c r="A7">
         <v>100</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="29">
         <v>219.02500000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="29">
         <v>37.731046438217099</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="29">
         <v>71.526687145233097</v>
       </c>
     </row>
@@ -7563,13 +8169,13 @@
       <c r="A8">
         <v>200</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="29">
         <v>216.374</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="29">
         <v>87.003224134445105</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="29">
         <v>67.220519304275498</v>
       </c>
     </row>
@@ -7577,13 +8183,13 @@
       <c r="A9">
         <v>300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="29">
         <v>218.09199999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="29">
         <v>169.53144669532699</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="29">
         <v>72.256937742233205</v>
       </c>
     </row>
@@ -7591,13 +8197,13 @@
       <c r="A10">
         <v>400</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="29">
         <v>235.97499999999999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="29">
         <v>279.55958938598599</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="29">
         <v>74.958888053894</v>
       </c>
     </row>
@@ -7605,13 +8211,13 @@
       <c r="A11">
         <v>500</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="29">
         <v>233.12799999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="29">
         <v>432.56498241424498</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="29">
         <v>71.270647764205904</v>
       </c>
     </row>
@@ -7619,16 +8225,24 @@
       <c r="A12">
         <v>1000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="29">
         <v>232.13900000000001</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29">
+        <v>69.967468738555894</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="29">
         <v>330.36</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29">
+        <v>142.93918013572599</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7681,21 +8295,27 @@
       <c r="A27">
         <v>100</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="29">
         <v>219.02500000000001</v>
+      </c>
+      <c r="C27" s="29">
+        <v>37.731046438217099</v>
+      </c>
+      <c r="D27" s="29">
+        <v>71.526687145233097</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="29">
         <v>330.26800000000003</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="29">
         <v>57.235394716262803</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="29">
         <v>107.764459609985</v>
       </c>
     </row>
@@ -7703,13 +8323,13 @@
       <c r="A29">
         <v>300</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="29">
         <v>536.98099999999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="29">
         <v>82.371729612350407</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="29">
         <v>74.876182556152301</v>
       </c>
     </row>
@@ -7717,13 +8337,13 @@
       <c r="A30">
         <v>400</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="29">
         <v>550.404</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="29">
         <v>104.223801374435</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="29">
         <v>92.242189168929997</v>
       </c>
     </row>
@@ -7731,13 +8351,13 @@
       <c r="A31">
         <v>500</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="29">
         <v>645.75099999999998</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="29">
         <v>132.56504297256399</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="29">
         <v>116.145183563232</v>
       </c>
     </row>
@@ -7745,20 +8365,23 @@
       <c r="A32">
         <v>1000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="29">
         <v>1142.0229999999999</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="29">
         <v>247.994469165802</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="29">
         <v>10006.994000000001</v>
       </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7770,13 +8393,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E67B23-9B85-4F28-88BB-9CDD6FC59BFD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
@@ -7959,7 +8582,9 @@
         <v>232.13900000000001</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <v>69.967468738555894</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
@@ -7969,7 +8594,9 @@
         <v>330.36</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>142.93918013572599</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -8024,8 +8651,12 @@
       <c r="B27" s="29">
         <v>219.02500000000001</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="C27" s="29">
+        <v>37.731046438217099</v>
+      </c>
+      <c r="D27" s="29">
+        <v>71.526687145233097</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="28">
@@ -8113,10 +8744,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADA3211-8990-44DF-881E-1F0497663202}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9506,17 +10137,17 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="13">
-        <v>57.235394716262803</v>
+        <v>37.731046438217099</v>
       </c>
       <c r="D70" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E70" s="14">
         <v>100</v>
@@ -9526,17 +10157,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="13">
-        <v>0.17999999999999899</v>
+        <v>0.11</v>
       </c>
       <c r="D71" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E71" s="14">
         <v>100</v>
@@ -9546,37 +10177,37 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="13">
-        <v>57.235891961999997</v>
+        <v>37.731298916999997</v>
       </c>
       <c r="D72" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E72" s="14">
         <v>100</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F72" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="17">
-        <v>0.18255808800000001</v>
+        <v>0.122764915</v>
       </c>
       <c r="D73" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E73" s="18">
         <v>100</v>
@@ -9585,7 +10216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>13</v>
       </c>
@@ -9593,10 +10224,10 @@
         <v>14</v>
       </c>
       <c r="C74" s="13">
-        <v>82.371729612350407</v>
+        <v>57.235394716262803</v>
       </c>
       <c r="D74" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E74" s="14">
         <v>100</v>
@@ -9613,10 +10244,10 @@
         <v>15</v>
       </c>
       <c r="C75" s="13">
-        <v>0.22999999999999901</v>
+        <v>0.17999999999999899</v>
       </c>
       <c r="D75" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E75" s="14">
         <v>100</v>
@@ -9633,10 +10264,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="13">
-        <v>82.3717687139997</v>
+        <v>57.235891961999997</v>
       </c>
       <c r="D76" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E76" s="14">
         <v>100</v>
@@ -9653,10 +10284,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="17">
-        <v>0.233079809</v>
+        <v>0.18255808800000001</v>
       </c>
       <c r="D77" s="18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E77" s="18">
         <v>100</v>
@@ -9673,10 +10304,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="13">
-        <v>104.223801374435</v>
+        <v>82.371729612350407</v>
       </c>
       <c r="D78" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E78" s="14">
         <v>100</v>
@@ -9693,10 +10324,10 @@
         <v>15</v>
       </c>
       <c r="C79" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.22999999999999901</v>
       </c>
       <c r="D79" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E79" s="14">
         <v>100</v>
@@ -9713,10 +10344,10 @@
         <v>16</v>
       </c>
       <c r="C80" s="13">
-        <v>104.223852454</v>
+        <v>82.3717687139997</v>
       </c>
       <c r="D80" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E80" s="14">
         <v>100</v>
@@ -9733,10 +10364,10 @@
         <v>17</v>
       </c>
       <c r="C81" s="17">
-        <v>0.28655002400000001</v>
+        <v>0.233079809</v>
       </c>
       <c r="D81" s="18">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E81" s="18">
         <v>100</v>
@@ -9753,10 +10384,10 @@
         <v>14</v>
       </c>
       <c r="C82" s="13">
-        <v>132.56504297256399</v>
+        <v>104.223801374435</v>
       </c>
       <c r="D82" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E82" s="14">
         <v>100</v>
@@ -9773,10 +10404,10 @@
         <v>15</v>
       </c>
       <c r="C83" s="13">
-        <v>0.33999999999999903</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D83" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="14">
         <v>100</v>
@@ -9792,11 +10423,11 @@
       <c r="B84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="23">
-        <v>132.564913725</v>
+      <c r="C84" s="13">
+        <v>104.223852454</v>
       </c>
       <c r="D84" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E84" s="14">
         <v>100</v>
@@ -9813,10 +10444,10 @@
         <v>17</v>
       </c>
       <c r="C85" s="17">
-        <v>0.34817656199999902</v>
+        <v>0.28655002400000001</v>
       </c>
       <c r="D85" s="18">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E85" s="18">
         <v>100</v>
@@ -9833,10 +10464,10 @@
         <v>14</v>
       </c>
       <c r="C86" s="13">
-        <v>247.994469165802</v>
+        <v>132.56504297256399</v>
       </c>
       <c r="D86" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E86" s="14">
         <v>100</v>
@@ -9853,10 +10484,10 @@
         <v>15</v>
       </c>
       <c r="C87" s="13">
-        <v>0.66999999999999904</v>
+        <v>0.33999999999999903</v>
       </c>
       <c r="D87" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E87" s="14">
         <v>100</v>
@@ -9873,10 +10504,10 @@
         <v>16</v>
       </c>
       <c r="C88" s="23">
-        <v>247.99395565200001</v>
+        <v>132.564913725</v>
       </c>
       <c r="D88" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E88" s="14">
         <v>100</v>
@@ -9893,10 +10524,10 @@
         <v>17</v>
       </c>
       <c r="C89" s="17">
-        <v>0.66095000000000004</v>
+        <v>0.34817656199999902</v>
       </c>
       <c r="D89" s="18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E89" s="18">
         <v>100</v>
@@ -9906,160 +10537,160 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="21" t="s">
-        <v>18</v>
+      <c r="A90" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="13">
-        <v>71.526687145233097</v>
+        <v>247.994469165802</v>
       </c>
       <c r="D90" s="14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E90" s="14">
         <v>100</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="21" t="s">
-        <v>18</v>
+      <c r="A91" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="13">
-        <v>3.56</v>
+        <v>0.66999999999999904</v>
       </c>
       <c r="D91" s="14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E91" s="14">
         <v>100</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="21" t="s">
-        <v>18</v>
+      <c r="A92" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="13">
-        <v>71.526260735999998</v>
+      <c r="C92" s="23">
+        <v>247.99395565200001</v>
       </c>
       <c r="D92" s="14">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E92" s="14">
         <v>100</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="22" t="s">
-        <v>18</v>
+      <c r="A93" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="17">
-        <v>3.557378135</v>
+        <v>0.66095000000000004</v>
       </c>
       <c r="D93" s="18">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E93" s="18">
         <v>100</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="13">
-        <v>67.220519304275498</v>
+        <v>71.526687145233097</v>
       </c>
       <c r="D94" s="14">
         <v>100</v>
       </c>
       <c r="E94" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F94" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="13">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="D95" s="14">
         <v>100</v>
       </c>
       <c r="E95" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F95" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="13">
-        <v>67.219871099000102</v>
+        <v>71.526260735999998</v>
       </c>
       <c r="D96" s="14">
         <v>100</v>
       </c>
       <c r="E96" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F96" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="17">
-        <v>3.62347726</v>
+        <v>3.557378135</v>
       </c>
       <c r="D97" s="18">
         <v>100</v>
       </c>
       <c r="E97" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>11</v>
@@ -10072,14 +10703,14 @@
       <c r="B98" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="23">
-        <v>72.256937742233205</v>
+      <c r="C98" s="13">
+        <v>67.220519304275498</v>
       </c>
       <c r="D98" s="14">
         <v>100</v>
       </c>
       <c r="E98" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F98" s="20" t="s">
         <v>11</v>
@@ -10093,13 +10724,13 @@
         <v>15</v>
       </c>
       <c r="C99" s="13">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="D99" s="14">
         <v>100</v>
       </c>
       <c r="E99" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F99" s="20" t="s">
         <v>11</v>
@@ -10113,13 +10744,13 @@
         <v>16</v>
       </c>
       <c r="C100" s="13">
-        <v>72.256924900000001</v>
+        <v>67.219871099000102</v>
       </c>
       <c r="D100" s="14">
         <v>100</v>
       </c>
       <c r="E100" s="14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F100" s="20" t="s">
         <v>11</v>
@@ -10133,13 +10764,13 @@
         <v>17</v>
       </c>
       <c r="C101" s="17">
-        <v>3.7579252699999999</v>
+        <v>3.62347726</v>
       </c>
       <c r="D101" s="18">
         <v>100</v>
       </c>
       <c r="E101" s="18">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>11</v>
@@ -10153,13 +10784,13 @@
         <v>14</v>
       </c>
       <c r="C102" s="23">
-        <v>74.958888053894</v>
+        <v>72.256937742233205</v>
       </c>
       <c r="D102" s="14">
         <v>100</v>
       </c>
       <c r="E102" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F102" s="20" t="s">
         <v>11</v>
@@ -10173,53 +10804,53 @@
         <v>15</v>
       </c>
       <c r="C103" s="13">
-        <v>3.6899999999999902</v>
+        <v>3.75</v>
       </c>
       <c r="D103" s="14">
         <v>100</v>
       </c>
       <c r="E103" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F103" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="13">
-        <v>74.958262730000101</v>
+        <v>72.256924900000001</v>
       </c>
       <c r="D104" s="14">
         <v>100</v>
       </c>
       <c r="E104" s="14">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F104" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="17">
-        <v>3.681375954</v>
+        <v>3.7579252699999999</v>
       </c>
       <c r="D105" s="18">
         <v>100</v>
       </c>
       <c r="E105" s="18">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>11</v>
@@ -10233,13 +10864,13 @@
         <v>14</v>
       </c>
       <c r="C106" s="23">
-        <v>71.270647764205904</v>
+        <v>74.958888053894</v>
       </c>
       <c r="D106" s="14">
         <v>100</v>
       </c>
       <c r="E106" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F106" s="20" t="s">
         <v>11</v>
@@ -10253,53 +10884,53 @@
         <v>15</v>
       </c>
       <c r="C107" s="13">
-        <v>3.7699999999999898</v>
+        <v>3.6899999999999902</v>
       </c>
       <c r="D107" s="14">
         <v>100</v>
       </c>
       <c r="E107" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F107" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="13">
-        <v>71.271274121999795</v>
+        <v>74.958262730000101</v>
       </c>
       <c r="D108" s="14">
         <v>100</v>
       </c>
       <c r="E108" s="14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F108" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="17">
-        <v>3.7605485879999998</v>
+        <v>3.681375954</v>
       </c>
       <c r="D109" s="18">
         <v>100</v>
       </c>
       <c r="E109" s="18">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>11</v>
@@ -10312,17 +10943,17 @@
       <c r="B110" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="13">
-        <v>69.967468738555894</v>
+      <c r="C110" s="23">
+        <v>71.270647764205904</v>
       </c>
       <c r="D110" s="14">
         <v>100</v>
       </c>
       <c r="E110" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10333,16 +10964,16 @@
         <v>15</v>
       </c>
       <c r="C111" s="13">
-        <v>3.92</v>
+        <v>3.7699999999999898</v>
       </c>
       <c r="D111" s="14">
         <v>100</v>
       </c>
       <c r="E111" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10353,16 +10984,16 @@
         <v>16</v>
       </c>
       <c r="C112" s="13">
-        <v>69.966939423000397</v>
+        <v>71.271274121999795</v>
       </c>
       <c r="D112" s="14">
         <v>100</v>
       </c>
       <c r="E112" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10373,16 +11004,16 @@
         <v>17</v>
       </c>
       <c r="C113" s="17">
-        <v>3.9265832810000001</v>
+        <v>3.7605485879999998</v>
       </c>
       <c r="D113" s="18">
         <v>100</v>
       </c>
       <c r="E113" s="18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10392,17 +11023,17 @@
       <c r="B114" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="24">
-        <v>142.93918013572599</v>
+      <c r="C114" s="13">
+        <v>69.967468738555894</v>
       </c>
       <c r="D114" s="14">
         <v>100</v>
       </c>
       <c r="E114" s="14">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10412,17 +11043,17 @@
       <c r="B115" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="25">
-        <v>5.3</v>
+      <c r="C115" s="13">
+        <v>3.92</v>
       </c>
       <c r="D115" s="14">
         <v>100</v>
       </c>
       <c r="E115" s="14">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10432,17 +11063,17 @@
       <c r="B116" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="25">
-        <v>142.939089061</v>
+      <c r="C116" s="13">
+        <v>69.966939423000397</v>
       </c>
       <c r="D116" s="14">
         <v>100</v>
       </c>
       <c r="E116" s="14">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10452,17 +11083,17 @@
       <c r="B117" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="13">
-        <v>5.290102246</v>
+      <c r="C117" s="17">
+        <v>3.9265832810000001</v>
       </c>
       <c r="D117" s="18">
         <v>100</v>
       </c>
       <c r="E117" s="18">
-        <v>10000</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>12</v>
+        <v>1000</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10472,17 +11103,17 @@
       <c r="B118" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="13">
-        <v>107.764459609985</v>
+      <c r="C118" s="24">
+        <v>142.93918013572599</v>
       </c>
       <c r="D118" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E118" s="14">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10492,57 +11123,57 @@
       <c r="B119" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="23">
-        <v>6.96</v>
+      <c r="C119" s="25">
+        <v>5.3</v>
       </c>
       <c r="D119" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E119" s="14">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F119" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="13">
-        <v>107.765899193</v>
+      <c r="C120" s="25">
+        <v>142.939089061</v>
       </c>
       <c r="D120" s="14">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E120" s="14">
-        <v>100</v>
-      </c>
-      <c r="F120" s="20" t="s">
-        <v>12</v>
+        <v>10000</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="17">
-        <v>6.9632356</v>
+      <c r="C121" s="13">
+        <v>5.290102246</v>
       </c>
       <c r="D121" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E121" s="18">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -10553,10 +11184,10 @@
         <v>14</v>
       </c>
       <c r="C122" s="13">
-        <v>74.876182556152301</v>
+        <v>71.526687145233097</v>
       </c>
       <c r="D122" s="14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E122" s="14">
         <v>100</v>
@@ -10573,10 +11204,10 @@
         <v>15</v>
       </c>
       <c r="C123" s="13">
-        <v>9.59</v>
+        <v>3.56</v>
       </c>
       <c r="D123" s="14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E123" s="14">
         <v>100</v>
@@ -10586,17 +11217,17 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="13">
-        <v>74.877577976000296</v>
+        <v>71.526260735999998</v>
       </c>
       <c r="D124" s="14">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E124" s="14">
         <v>100</v>
@@ -10606,17 +11237,17 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C125" s="17">
-        <v>9.6002789380000007</v>
+        <v>3.557378135</v>
       </c>
       <c r="D125" s="18">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E125" s="18">
         <v>100</v>
@@ -10633,10 +11264,10 @@
         <v>14</v>
       </c>
       <c r="C126" s="13">
-        <v>92.242189168929997</v>
+        <v>107.764459609985</v>
       </c>
       <c r="D126" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E126" s="14">
         <v>100</v>
@@ -10652,11 +11283,11 @@
       <c r="B127" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="13">
-        <v>12.75</v>
+      <c r="C127" s="23">
+        <v>6.96</v>
       </c>
       <c r="D127" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E127" s="14">
         <v>100</v>
@@ -10673,10 +11304,10 @@
         <v>16</v>
       </c>
       <c r="C128" s="13">
-        <v>92.243663733000105</v>
+        <v>107.765899193</v>
       </c>
       <c r="D128" s="14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E128" s="14">
         <v>100</v>
@@ -10693,10 +11324,10 @@
         <v>17</v>
       </c>
       <c r="C129" s="17">
-        <v>12.7504042</v>
+        <v>6.9632356</v>
       </c>
       <c r="D129" s="18">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E129" s="18">
         <v>100</v>
@@ -10713,10 +11344,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="13">
-        <v>116.145183563232</v>
+        <v>74.876182556152301</v>
       </c>
       <c r="D130" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E130" s="14">
         <v>100</v>
@@ -10733,10 +11364,10 @@
         <v>15</v>
       </c>
       <c r="C131" s="13">
-        <v>15.56</v>
+        <v>9.59</v>
       </c>
       <c r="D131" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E131" s="14">
         <v>100</v>
@@ -10753,10 +11384,10 @@
         <v>16</v>
       </c>
       <c r="C132" s="13">
-        <v>116.145262881999</v>
+        <v>74.877577976000296</v>
       </c>
       <c r="D132" s="14">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E132" s="14">
         <v>100</v>
@@ -10766,22 +11397,182 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="26" t="s">
+      <c r="A133" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B133" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C133" s="17">
+        <v>9.6002789380000007</v>
+      </c>
+      <c r="D133" s="18">
+        <v>300</v>
+      </c>
+      <c r="E133" s="18">
+        <v>100</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="13">
+        <v>92.242189168929997</v>
+      </c>
+      <c r="D134" s="14">
+        <v>400</v>
+      </c>
+      <c r="E134" s="14">
+        <v>100</v>
+      </c>
+      <c r="F134" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="D135" s="14">
+        <v>400</v>
+      </c>
+      <c r="E135" s="14">
+        <v>100</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="13">
+        <v>92.243663733000105</v>
+      </c>
+      <c r="D136" s="14">
+        <v>400</v>
+      </c>
+      <c r="E136" s="14">
+        <v>100</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="17">
+        <v>12.7504042</v>
+      </c>
+      <c r="D137" s="18">
+        <v>400</v>
+      </c>
+      <c r="E137" s="18">
+        <v>100</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="13">
+        <v>116.145183563232</v>
+      </c>
+      <c r="D138" s="14">
+        <v>500</v>
+      </c>
+      <c r="E138" s="14">
+        <v>100</v>
+      </c>
+      <c r="F138" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="13">
+        <v>15.56</v>
+      </c>
+      <c r="D139" s="14">
+        <v>500</v>
+      </c>
+      <c r="E139" s="14">
+        <v>100</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="13">
+        <v>116.145262881999</v>
+      </c>
+      <c r="D140" s="14">
+        <v>500</v>
+      </c>
+      <c r="E140" s="14">
+        <v>100</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="17">
         <v>15.556599650000001</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D141" s="18">
         <v>500</v>
       </c>
-      <c r="E133" s="18">
-        <v>100</v>
-      </c>
-      <c r="F133" s="15" t="s">
+      <c r="E141" s="18">
+        <v>100</v>
+      </c>
+      <c r="F141" s="15" t="s">
         <v>12</v>
       </c>
     </row>
